--- a/output/inference_results/test_sheets/batch_004/test_sheet (42).xlsx
+++ b/output/inference_results/test_sheets/batch_004/test_sheet (42).xlsx
@@ -495,12 +495,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Y-GT</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Y一谷氨酰转移酶</t>
+          <t>γ谷氨酰转肽酶</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -583,12 +583,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>T-bil</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>总胆红素（重氮法）</t>
+          <t>总胆红素</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -598,19 +598,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>umol/L</t>
+          <t>μmol/L</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D-bil</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>直接胆红素（重氮法）</t>
+          <t>直接胆红素</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -620,14 +620,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>u mol/L</t>
+          <t>μmol/L</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HBsAg</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -675,7 +675,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AST/ALT</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
